--- a/recalculare init value cu steady state.xlsx
+++ b/recalculare init value cu steady state.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="292">
   <si>
     <t>R_b</t>
   </si>
@@ -901,6 +901,9 @@
   </si>
   <si>
     <t>cu vi=18%</t>
+  </si>
+  <si>
+    <t>recalibrat reestimat vi=16%</t>
   </si>
 </sst>
 </file>
@@ -1411,29 +1414,29 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>-C3*(EXP(D3)/EXP(E3)-F3)*(EXP(D3)/EXP(E3))^2+EXP(H3)</f>
-        <v>0.98999675333950254</v>
+        <v>0.99195012925011694</v>
       </c>
       <c r="C3">
         <v>8.9148195803466894</v>
       </c>
       <c r="D3">
         <f>Sheet4!C35</f>
-        <v>1.3424499999999999</v>
+        <v>1.87507</v>
       </c>
       <c r="E3">
         <f>Sheet4!C43</f>
-        <v>3.1572800000000001</v>
+        <v>3.74072</v>
       </c>
       <c r="F3">
         <v>0.14000000000000001</v>
       </c>
       <c r="G3">
         <f>Sheet4!C69</f>
-        <v>-1.8427500000000001</v>
+        <v>-1.9605300000000001</v>
       </c>
       <c r="H3">
         <f>G3/400</f>
-        <v>-4.6068749999999999E-3</v>
+        <v>-4.9013250000000006E-3</v>
       </c>
       <c r="I3">
         <f>(J3/K3-1)*(L3-1)/L3</f>
@@ -6714,7 +6717,7 @@
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,Sheet4!B:C,2,0)</f>
-        <v>1.26752E-17</v>
+        <v>-1.35501E-17</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">EXP(B3)</f>
@@ -6738,11 +6741,11 @@
       </c>
       <c r="M3" s="4">
         <f>B36</f>
-        <v>2.9002500000000002</v>
+        <v>2.57585</v>
       </c>
       <c r="N3" s="4">
         <f>400*C69</f>
-        <v>2.9002430595203874</v>
+        <v>2.5758370444729244</v>
       </c>
       <c r="O3" t="b">
         <f>M3=initial!M3</f>
@@ -6754,7 +6757,7 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q66" si="1">N3-M3</f>
-        <v>-6.9404796128047508E-6</v>
+        <v>-1.2955527075586559E-5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6763,11 +6766,11 @@
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,Sheet4!B:C,2,0)</f>
-        <v>0.16286600000000001</v>
+        <v>0.15479599999999999</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1.1768789773390123</v>
+        <v>1.1674197831760345</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
@@ -6788,11 +6791,11 @@
       </c>
       <c r="M4" s="4">
         <f>B35</f>
-        <v>7.9653400000000003</v>
+        <v>1.65988</v>
       </c>
       <c r="N4" s="4">
         <f>400*C67</f>
-        <v>7.9653791728616046</v>
+        <v>1.6598787326972806</v>
       </c>
       <c r="O4" t="e">
         <f>M4=initial!M4</f>
@@ -6804,7 +6807,7 @@
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>3.9172861604264142E-5</v>
+        <v>-1.2673027194320952E-6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -6813,11 +6816,11 @@
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,Sheet4!B:C,2,0)</f>
-        <v>3.1572800000000001</v>
+        <v>3.74072</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>23.506571021488853</v>
+        <v>42.128311632334054</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
@@ -6837,11 +6840,11 @@
       </c>
       <c r="M5" s="4">
         <f>B34</f>
-        <v>9.2597100000000001</v>
+        <v>3.5811899999999999</v>
       </c>
       <c r="N5" s="4">
         <f>400*C66</f>
-        <v>9.2597268196756595</v>
+        <v>3.5811878501912289</v>
       </c>
       <c r="O5" t="e">
         <f>M5=initial!M5</f>
@@ -6853,7 +6856,7 @@
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="1"/>
-        <v>1.6819675659363043E-5</v>
+        <v>-2.1498087710014602E-6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6862,11 +6865,11 @@
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,Sheet4!B:C,2,0)</f>
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -6886,11 +6889,11 @@
       </c>
       <c r="M6" s="12">
         <f>B32</f>
-        <v>5.9447300000000001E-13</v>
+        <v>8.9462999999999995E-14</v>
       </c>
       <c r="N6" s="4">
         <f>B59*100</f>
-        <v>5.9447300000000001E-13</v>
+        <v>8.9462999999999995E-14</v>
       </c>
       <c r="O6" t="e">
         <f>M6=initial!M6</f>
@@ -6911,11 +6914,11 @@
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,Sheet4!B:C,2,0)</f>
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
@@ -6936,11 +6939,11 @@
       </c>
       <c r="M7" s="4">
         <f>B52</f>
-        <v>64.6554</v>
+        <v>154.70599999999999</v>
       </c>
       <c r="N7" s="4">
         <f>B12*100</f>
-        <v>64.6554</v>
+        <v>154.70600000000002</v>
       </c>
       <c r="O7" t="b">
         <f>M7=initial!M7</f>
@@ -6961,11 +6964,11 @@
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,Sheet4!B:C,2,0)</f>
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -6985,11 +6988,11 @@
       </c>
       <c r="M8" s="4">
         <f>B51</f>
-        <v>307.25900000000001</v>
+        <v>362.24900000000002</v>
       </c>
       <c r="N8" s="4">
         <f>B11*100</f>
-        <v>307.25900000000001</v>
+        <v>362.24900000000002</v>
       </c>
       <c r="O8" t="e">
         <f>M8=initial!M8</f>
@@ -7010,11 +7013,11 @@
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,Sheet4!B:C,2,0)</f>
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
@@ -7034,11 +7037,11 @@
       </c>
       <c r="M9" s="4">
         <f>B58</f>
-        <v>221.56100000000001</v>
+        <v>254.86699999999999</v>
       </c>
       <c r="N9" s="4">
         <f>B81*100</f>
-        <v>221.56099999999998</v>
+        <v>254.86699999999999</v>
       </c>
       <c r="O9" t="b">
         <f>M9=initial!M9</f>
@@ -7059,11 +7062,11 @@
       </c>
       <c r="B10">
         <f>VLOOKUP(A10,Sheet4!B:C,2,0)</f>
-        <v>134.245</v>
+        <v>187.50700000000001</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2.0038385304434076E+58</v>
+        <v>2.7117860246017878E+81</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
@@ -7084,11 +7087,11 @@
       </c>
       <c r="M10" s="4">
         <f>B18</f>
-        <v>177.73099999999999</v>
+        <v>197.83099999999999</v>
       </c>
       <c r="N10" s="4">
         <f>B14*100</f>
-        <v>177.73099999999999</v>
+        <v>197.83099999999999</v>
       </c>
       <c r="O10" t="e">
         <f>M10=initial!M10</f>
@@ -7109,11 +7112,11 @@
       </c>
       <c r="B11">
         <f>VLOOKUP(A11,Sheet4!B:C,2,0)</f>
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
@@ -7133,11 +7136,11 @@
       </c>
       <c r="M11" s="4">
         <f>B37</f>
-        <v>117.96</v>
+        <v>171.553</v>
       </c>
       <c r="N11" s="4">
         <f>B31*100</f>
-        <v>117.96</v>
+        <v>171.553</v>
       </c>
       <c r="O11" t="e">
         <f>M11=initial!M11</f>
@@ -7158,11 +7161,11 @@
       </c>
       <c r="B12">
         <f>VLOOKUP(A12,Sheet4!B:C,2,0)</f>
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
@@ -7183,11 +7186,11 @@
       </c>
       <c r="M12" s="4">
         <f>B22</f>
-        <v>297.95100000000002</v>
+        <v>357.25400000000002</v>
       </c>
       <c r="N12" s="4">
         <f>B19*100</f>
-        <v>297.95099999999996</v>
+        <v>357.25400000000002</v>
       </c>
       <c r="O12" t="e">
         <f>M12=initial!M12</f>
@@ -7208,11 +7211,11 @@
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,Sheet4!B:C,2,0)</f>
-        <v>-3.9542600000000001</v>
+        <v>-5.3594200000000001</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1.9172851211307834E-2</v>
+        <v>4.7036334239709725E-3</v>
       </c>
       <c r="E13" t="s">
         <v>89</v>
@@ -7258,11 +7261,11 @@
       </c>
       <c r="B14">
         <f>VLOOKUP(A14,Sheet4!B:C,2,0)</f>
-        <v>1.7773099999999999</v>
+        <v>1.97831</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>5.9139265401175312</v>
+        <v>7.2305130866911149</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -7283,11 +7286,11 @@
       </c>
       <c r="M14" s="4">
         <f>B10</f>
-        <v>134.245</v>
+        <v>187.50700000000001</v>
       </c>
       <c r="N14" s="4">
         <f>100*B42</f>
-        <v>134.245</v>
+        <v>187.50700000000001</v>
       </c>
       <c r="O14" t="e">
         <f>M14=initial!M14</f>
@@ -7308,11 +7311,11 @@
       </c>
       <c r="B15">
         <f>VLOOKUP(A15,Sheet4!B:C,2,0)</f>
-        <v>0.13846</v>
+        <v>0.66757900000000003</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1.1485037405017433</v>
+        <v>1.9495118345916373</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
@@ -7335,11 +7338,11 @@
       </c>
       <c r="M15" s="4">
         <f>(1-I4)*C25/(C17-I4*C17)</f>
-        <v>0.2234159496196616</v>
+        <v>0.20232094617605711</v>
       </c>
       <c r="N15" s="4">
         <f>C50</f>
-        <v>0.2234159496196616</v>
+        <v>0.20232094617605728</v>
       </c>
       <c r="O15" t="b">
         <f>M15=initial!M15</f>
@@ -7360,11 +7363,11 @@
       </c>
       <c r="B16">
         <f>VLOOKUP(A16,Sheet4!B:C,2,0)</f>
-        <v>-1.23969</v>
+        <v>-1.0838000000000001</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.28947394095296036</v>
+        <v>0.3383075114244174</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -7378,7 +7381,7 @@
       </c>
       <c r="M16" s="4">
         <f>I30*C23/C30-C50*C63+C50*C63*I9</f>
-        <v>-1.042304219822654E-6</v>
+        <v>-4.8232404026293807E-7</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
@@ -7393,7 +7396,7 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>1.042304219822654E-6</v>
+        <v>4.8232404026293807E-7</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -7402,11 +7405,11 @@
       </c>
       <c r="B17">
         <f>VLOOKUP(A17,Sheet4!B:C,2,0)</f>
-        <v>1.4987200000000001</v>
+        <v>1.5979000000000001</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>4.4759561781617556</v>
+        <v>4.9426419700993875</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -7420,11 +7423,11 @@
       </c>
       <c r="M17" s="4">
         <f>C50</f>
-        <v>0.2234159496196616</v>
+        <v>0.20232094617605728</v>
       </c>
       <c r="N17" s="4">
         <f>I9*C50*(1+C68)/C59</f>
-        <v>0.22341594598030787</v>
+        <v>0.2023209428803335</v>
       </c>
       <c r="O17" t="b">
         <f>M17=initial!M17</f>
@@ -7436,7 +7439,7 @@
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="1"/>
-        <v>-3.6393537350409844E-9</v>
+        <v>-3.295723777219095E-9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -7445,11 +7448,11 @@
       </c>
       <c r="B18">
         <f>VLOOKUP(A18,Sheet4!B:C,2,0)</f>
-        <v>177.73099999999999</v>
+        <v>197.83099999999999</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1.5402547725427687E+77</v>
+        <v>8.2586992182928516E+85</v>
       </c>
       <c r="H18" t="s">
         <v>111</v>
@@ -7463,7 +7466,7 @@
       </c>
       <c r="M18" s="4">
         <f>(1-C27)*C46+C46^(1+I44)/C77*C27/C50-I37*(C61-C59^I29*I47^(1-I29))*C61+I9*C50/C50*I37*(C61-C59^I29*I47^(1-I29))*C61^2/C59</f>
-        <v>-1.1195432739856344E-6</v>
+        <v>-3.4465775826928806E-5</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
@@ -7478,7 +7481,7 @@
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>1.1195432739856344E-6</v>
+        <v>3.4465775826928806E-5</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -7487,11 +7490,11 @@
       </c>
       <c r="B19">
         <f>VLOOKUP(A19,Sheet4!B:C,2,0)</f>
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="H19" t="s">
         <v>120</v>
@@ -7505,19 +7508,19 @@
       </c>
       <c r="M19" s="4">
         <f>C61</f>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="N19" s="4">
         <f>C77/C77*C59</f>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="O19" t="b">
         <f>M19=initial!M19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="b">
         <f>N19=initial!N19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="1"/>
@@ -7530,11 +7533,11 @@
       </c>
       <c r="B20">
         <f>VLOOKUP(A20,Sheet4!B:C,2,0)</f>
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="H20" t="s">
         <v>178</v>
@@ -7548,11 +7551,11 @@
       </c>
       <c r="M20" s="4">
         <f>C17+C63*(C30-C30)+C21</f>
-        <v>24.154128155904612</v>
+        <v>40.549561934822933</v>
       </c>
       <c r="N20" s="4">
         <f>C46*C77+(1+C68)*C21/C59+C40/I23</f>
-        <v>24.154128142392064</v>
+        <v>40.54959560099168</v>
       </c>
       <c r="O20" t="b">
         <f>M20=initial!M20</f>
@@ -7564,7 +7567,7 @@
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3512547525351692E-8</v>
+        <v>3.3666168747004122E-5</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -7573,11 +7576,11 @@
       </c>
       <c r="B21">
         <f>VLOOKUP(A21,Sheet4!B:C,2,0)</f>
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="H21" t="s">
         <v>109</v>
@@ -7593,11 +7596,11 @@
       </c>
       <c r="M21" s="4">
         <f>(1-I4)*C25/(C16-C16*I4)</f>
-        <v>3.4545423906136716</v>
+        <v>2.9558906209016111</v>
       </c>
       <c r="N21" s="4">
         <f>C49</f>
-        <v>3.4545423906136699</v>
+        <v>2.9558906209016107</v>
       </c>
       <c r="O21" t="b">
         <f>M21=initial!M21</f>
@@ -7618,11 +7621,11 @@
       </c>
       <c r="B22">
         <f>VLOOKUP(A22,Sheet4!B:C,2,0)</f>
-        <v>297.95100000000002</v>
+        <v>357.25400000000002</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>2.5030825786323655E+129</v>
+        <v>1.4237732787073737E+155</v>
       </c>
       <c r="H22" t="s">
         <v>108</v>
@@ -7636,7 +7639,7 @@
       </c>
       <c r="M22" s="4">
         <f>I30*C23/C29-C49*C63+I8*C49*C63+C73*C63*C54*C59</f>
-        <v>-7.8821003569373715E-5</v>
+        <v>1.3200861409501385E-4</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
@@ -7651,7 +7654,7 @@
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>7.8821003569373715E-5</v>
+        <v>-1.3200861409501385E-4</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -7660,11 +7663,11 @@
       </c>
       <c r="B23">
         <f>VLOOKUP(A23,Sheet4!B:C,2,0)</f>
-        <v>-2.7512200000000001E-16</v>
+        <v>4.2110200000000001E-16</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="H23" t="s">
         <v>107</v>
@@ -7678,11 +7681,11 @@
       </c>
       <c r="M23" s="4">
         <f>C49-I8*C49*(1+C67)/C59</f>
-        <v>1.9291505991080093E-2</v>
+        <v>6.1937866826621946E-2</v>
       </c>
       <c r="N23" s="4">
         <f>C73*(1+C67)</f>
-        <v>1.9291856188374663E-2</v>
+        <v>6.1938155145954424E-2</v>
       </c>
       <c r="O23" t="b">
         <f>M23=initial!M23</f>
@@ -7694,7 +7697,7 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="1"/>
-        <v>3.5019729456922666E-7</v>
+        <v>2.8831933247819297E-7</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -7703,11 +7706,11 @@
       </c>
       <c r="B24">
         <f>VLOOKUP(A24,Sheet4!B:C,2,0)</f>
-        <v>-1.8820600000000001E-16</v>
+        <v>-6.16294E-17</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H24" t="s">
         <v>103</v>
@@ -7721,7 +7724,7 @@
       </c>
       <c r="M24" s="4">
         <f>(1-C27)*C44+C44^(1+I44)/C76*C27/C49-I37*(C60-C59^I29*I47^(1-I29))*C60+I8*C49/C49*I37*(C60-C59^I29*I47^(1-I29))*C60^2/C59</f>
-        <v>1.0423992618637308E-5</v>
+        <v>2.1226271645235738E-5</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
@@ -7736,7 +7739,7 @@
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0423992618637308E-5</v>
+        <v>-2.1226271645235738E-5</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -7745,11 +7748,11 @@
       </c>
       <c r="B25">
         <f>VLOOKUP(A25,Sheet4!B:C,2,0)</f>
-        <v>1.27738E-16</v>
+        <v>-4.5728399999999998E-16</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="H25" t="s">
         <v>129</v>
@@ -7763,19 +7766,19 @@
       </c>
       <c r="M25" s="4">
         <f>C60</f>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="N25" s="4">
         <f>C76/C76*C59</f>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="O25" t="b">
         <f>M25=initial!M25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="b">
         <f>N25=initial!N25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="1"/>
@@ -7788,11 +7791,11 @@
       </c>
       <c r="B26">
         <f>VLOOKUP(A26,Sheet4!B:C,2,0)</f>
-        <v>-5.20552E-18</v>
+        <v>3.75294E-16</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="H26" t="s">
         <v>130</v>
@@ -7806,11 +7809,11 @@
       </c>
       <c r="M26" s="4">
         <f>C16+C63*(C29-C29)+(1+C67)*C9/C59</f>
-        <v>2.2364389776975129</v>
+        <v>5.0554400906248063</v>
       </c>
       <c r="N26" s="4">
         <f>C76*C44+C9</f>
-        <v>2.2364379145577007</v>
+        <v>5.055437874896139</v>
       </c>
       <c r="O26" t="b">
         <f>M26=initial!M26</f>
@@ -7822,7 +7825,7 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0631398121851987E-6</v>
+        <v>-2.2157286672097598E-6</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -7850,11 +7853,11 @@
       </c>
       <c r="M27" s="4">
         <f>(1+C67)*C9</f>
-        <v>1.9469650367445641</v>
+        <v>4.7171325792003937</v>
       </c>
       <c r="N27" s="4">
         <f>C54*C63*C29*C59</f>
-        <v>1.9469810628106556</v>
+        <v>4.7170801693881472</v>
       </c>
       <c r="O27" t="b">
         <f>M27=initial!M27</f>
@@ -7866,7 +7869,7 @@
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="1"/>
-        <v>1.6026066091523461E-5</v>
+        <v>-5.2409812246523302E-5</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -7896,11 +7899,11 @@
       </c>
       <c r="M28" s="14">
         <f>C41</f>
-        <v>66.389572268462302</v>
+        <v>113.46109467888594</v>
       </c>
       <c r="N28" s="14">
         <f>(1-I11)*C41+(1-I34/2*(C31*C24/C31-1)^2)*C31</f>
-        <v>66.389555940831386</v>
+        <v>113.46112237057648</v>
       </c>
       <c r="O28" t="b">
         <f>M28=initial!M28</f>
@@ -7912,7 +7915,7 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>-1.6327630916634917E-5</v>
+        <v>2.7691690533515612E-5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -7921,11 +7924,11 @@
       </c>
       <c r="B29">
         <f>VLOOKUP(A29,Sheet4!B:C,2,0)</f>
-        <v>-4.4912099999999997</v>
+        <v>-3.7187700000000001</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1.1207075041339781E-2</v>
+        <v>2.4263793965444636E-2</v>
       </c>
       <c r="H29" t="s">
         <v>123</v>
@@ -7942,7 +7945,7 @@
       </c>
       <c r="N29" s="4">
         <f>C64*(1-I34/2*(C31/C31*C24-1)^2-I34*(C31/C31*C24-1)*C31/C31*C24)+I7*C48/C48*C64*I34*(C31/C31*C24-1)*C24*C31/C31</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <f>M29=initial!M29</f>
@@ -7963,11 +7966,11 @@
       </c>
       <c r="B30">
         <f>VLOOKUP(A30,Sheet4!B:C,2,0)</f>
-        <v>-1.12703E-2</v>
+        <v>-2.4563100000000001E-2</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.98879297191016602</v>
+        <v>0.97573611802681859</v>
       </c>
       <c r="H30" t="s">
         <v>94</v>
@@ -7984,11 +7987,11 @@
       </c>
       <c r="M30" s="4">
         <f>(1-I4)/(C15-I4*C15)</f>
-        <v>0.87069807849570713</v>
+        <v>0.51294892508794099</v>
       </c>
       <c r="N30" s="4">
         <f>C48</f>
-        <v>0.87069807849570691</v>
+        <v>0.51294892508794088</v>
       </c>
       <c r="O30" t="b">
         <f>M30=initial!M30</f>
@@ -8009,11 +8012,11 @@
       </c>
       <c r="B31">
         <f>VLOOKUP(A31,Sheet4!B:C,2,0)</f>
-        <v>1.1796</v>
+        <v>1.71553</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>3.2530727135237414</v>
+        <v>5.5596213309559417</v>
       </c>
       <c r="H31" t="s">
         <v>126</v>
@@ -8028,11 +8031,11 @@
       </c>
       <c r="M31" s="14">
         <f>C72*C53*C64*C59*(1-I11)+I7*C48*(C64*(1-I11)+C70*C75)-(I12*(C75-1)+I13/2*(C75-1)^2)</f>
-        <v>0.87419558667410269</v>
+        <v>0.533174762059482</v>
       </c>
       <c r="N31" s="14">
         <f>C48*C64</f>
-        <v>0.87069807849570713</v>
+        <v>0.51294892508794088</v>
       </c>
       <c r="O31" t="b">
         <f>M31=initial!M31</f>
@@ -8044,7 +8047,7 @@
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="1"/>
-        <v>-3.4975081783955586E-3</v>
+        <v>-2.0225836971541122E-2</v>
       </c>
       <c r="R31" s="4"/>
     </row>
@@ -8054,11 +8057,11 @@
       </c>
       <c r="B32">
         <f>VLOOKUP(A32,Sheet4!B:C,2,0)</f>
-        <v>5.9447300000000001E-13</v>
+        <v>8.9462999999999995E-14</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1.0000000000005944</v>
+        <v>1.0000000000000895</v>
       </c>
       <c r="H32" t="s">
         <v>127</v>
@@ -8073,11 +8076,11 @@
       </c>
       <c r="M32" s="14">
         <f>C77</f>
-        <v>3.1694878077744146</v>
+        <v>3.4670704962578007</v>
       </c>
       <c r="N32" s="14">
         <f>I43*(1-I6)*C80/(C78*C47)</f>
-        <v>2.8173309143221563</v>
+        <v>3.0818126680805213</v>
       </c>
       <c r="O32" t="b">
         <f>M32=initial!M32</f>
@@ -8089,7 +8092,7 @@
       </c>
       <c r="Q32" s="4">
         <f>N32-M32</f>
-        <v>-0.35215689345225831</v>
+        <v>-0.38525782817727938</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -8117,11 +8120,11 @@
       </c>
       <c r="M33" s="14">
         <f>C76</f>
-        <v>0.33121088224198098</v>
+        <v>0.36464171872913459</v>
       </c>
       <c r="N33" s="14">
         <f>(1-I43)*(1-I6)*C80/(C78*C45)</f>
-        <v>0.66242382514096376</v>
+        <v>0.72928264311456314</v>
       </c>
       <c r="O33" t="b">
         <f>M33=initial!M33</f>
@@ -8133,7 +8136,7 @@
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="1"/>
-        <v>0.33121294289898279</v>
+        <v>0.36464092438542856</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -8142,11 +8145,11 @@
       </c>
       <c r="B34">
         <f>VLOOKUP(A34,Sheet4!B:C,2,0)</f>
-        <v>9.2597100000000001</v>
+        <v>3.5811899999999999</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>10506.086133647977</v>
+        <v>35.916255771009794</v>
       </c>
       <c r="H34" t="s">
         <v>124</v>
@@ -8161,11 +8164,11 @@
       </c>
       <c r="M34" s="4">
         <f>C48-C72*(1+C66)</f>
-        <v>0.8685827698888311</v>
+        <v>0.50460279133202612</v>
       </c>
       <c r="N34" s="4">
         <f>I7*C48*(1+C66)/C59</f>
-        <v>0.86858279075969547</v>
+        <v>0.5046028077028325</v>
       </c>
       <c r="O34" t="b">
         <f>M34=initial!M34</f>
@@ -8177,7 +8180,7 @@
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="1"/>
-        <v>2.0870864370081676E-8</v>
+        <v>1.6370806377175029E-8</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -8186,11 +8189,11 @@
       </c>
       <c r="B35">
         <f>VLOOKUP(A35,Sheet4!B:C,2,0)</f>
-        <v>7.9653400000000003</v>
+        <v>1.65988</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2879.4080102363041</v>
+        <v>5.258679765011089</v>
       </c>
       <c r="H35" t="s">
         <v>119</v>
@@ -8205,11 +8208,11 @@
       </c>
       <c r="M35" s="4">
         <f>C70</f>
-        <v>7.3706079010984873E-2</v>
+        <v>6.8452171764555508E-2</v>
       </c>
       <c r="N35" s="4">
         <f>I12+I13*(C75-1)</f>
-        <v>8.1609657165053848E-2</v>
+        <v>7.9490694163318526E-2</v>
       </c>
       <c r="O35" t="b">
         <f>M35=initial!M35</f>
@@ -8221,7 +8224,7 @@
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="1"/>
-        <v>7.9035781540689742E-3</v>
+        <v>1.1038522398763018E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -8230,11 +8233,11 @@
       </c>
       <c r="B36">
         <f>VLOOKUP(A36,Sheet4!B:C,2,0)</f>
-        <v>2.9002500000000002</v>
+        <v>2.57585</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>18.178689473774799</v>
+        <v>13.142483523107385</v>
       </c>
       <c r="H36" t="s">
         <v>121</v>
@@ -8249,11 +8252,11 @@
       </c>
       <c r="M36" s="4">
         <f>C15+(1+C66)*C7/C59+C77*C47+C76*C45+C64*C43+(I12*(C75-1)+I13/2*(C75-1)^2)*C43</f>
-        <v>91.915350951252947</v>
+        <v>152.72355304284915</v>
       </c>
       <c r="N36" s="4">
         <f>C80/C78+C7+C64*(1-I11)*C43</f>
-        <v>92.01175613624639</v>
+        <v>153.28323709071464</v>
       </c>
       <c r="O36" t="b">
         <f>M36=initial!M36</f>
@@ -8265,7 +8268,7 @@
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="1"/>
-        <v>9.6405184993443527E-2</v>
+        <v>0.55968404786548831</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -8274,11 +8277,11 @@
       </c>
       <c r="B37">
         <f>VLOOKUP(A37,Sheet4!B:C,2,0)</f>
-        <v>117.96</v>
+        <v>171.553</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1.6958095836981612E+51</v>
+        <v>3.1953707393106623E+74</v>
       </c>
       <c r="H37" t="s">
         <v>112</v>
@@ -8292,11 +8295,11 @@
       </c>
       <c r="M37" s="14">
         <f>C80</f>
-        <v>8.733009139686656</v>
+        <v>9.5413024376085502</v>
       </c>
       <c r="N37" s="14">
         <f>C3*(C75*C43)^I6*(C47^I43*C45^(1-I43))^(1-I6)</f>
-        <v>8.7571388561203385</v>
+        <v>9.5649419607870438</v>
       </c>
       <c r="O37" t="b">
         <f>M37=initial!M37</f>
@@ -8308,7 +8311,7 @@
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="1"/>
-        <v>2.4129716433682447E-2</v>
+        <v>2.3639523178493604E-2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -8317,11 +8320,11 @@
       </c>
       <c r="B38">
         <f>VLOOKUP(A38,Sheet4!B:C,2,0)</f>
-        <v>-0.76663700000000001</v>
+        <v>-1.5285899999999999</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.4645728024829493</v>
+        <v>0.21684119795540463</v>
       </c>
       <c r="H38" t="s">
         <v>99</v>
@@ -8335,11 +8338,11 @@
       </c>
       <c r="M38" s="14">
         <f>(1+C66)*C7</f>
-        <v>22.09774210894528</v>
+        <v>37.765769720596019</v>
       </c>
       <c r="N38" s="14">
         <f>C53*C64*C59*C43*(1-I11)</f>
-        <v>22.097816076288979</v>
+        <v>37.765605596761148</v>
       </c>
       <c r="O38" t="b">
         <f>M38=initial!M38</f>
@@ -8351,7 +8354,7 @@
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="1"/>
-        <v>7.3967343698910781E-5</v>
+        <v>-1.6412383487107718E-4</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -8360,11 +8363,11 @@
       </c>
       <c r="B39">
         <f>VLOOKUP(A39,Sheet4!B:C,2,0)</f>
-        <v>-0.76663700000000001</v>
+        <v>-1.5285899999999999</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.4645728024829493</v>
+        <v>0.21684119795540463</v>
       </c>
       <c r="H39" t="s">
         <v>97</v>
@@ -8378,11 +8381,11 @@
       </c>
       <c r="M39" s="14">
         <f>C70</f>
-        <v>7.3706079010984873E-2</v>
+        <v>6.8452171764555508E-2</v>
       </c>
       <c r="N39" s="14">
         <f>I6*C3*C75^(I6-1)*C43^(I6-1)*(C47^I43*C45^(1-I43))^(1-I6)/C78</f>
-        <v>7.3909658420530003E-2</v>
+        <v>6.8621837379734707E-2</v>
       </c>
       <c r="O39" t="b">
         <f>M39=initial!M39</f>
@@ -8394,7 +8397,7 @@
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="1"/>
-        <v>2.0357940954512932E-4</v>
+        <v>1.6966561517919865E-4</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -8403,11 +8406,11 @@
       </c>
       <c r="B40">
         <f>VLOOKUP(A40,Sheet4!B:C,2,0)</f>
-        <v>0.37534699999999999</v>
+        <v>0.46387499999999998</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1.4554963842462374</v>
+        <v>1.5902241799933958</v>
       </c>
       <c r="H40" t="s">
         <v>114</v>
@@ -8428,7 +8431,7 @@
       </c>
       <c r="N40" s="4">
         <f>-I35*(C42/C5-I65)*(C42/C5)^2+C69</f>
-        <v>1.8436406164330562E-3</v>
+        <v>3.2790549679766762E-3</v>
       </c>
       <c r="O40" t="b">
         <f>M40=initial!M40</f>
@@ -8440,7 +8443,7 @@
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="1"/>
-        <v>-8.043449623114313E-3</v>
+        <v>-6.608035271570693E-3</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -8449,11 +8452,11 @@
       </c>
       <c r="B41">
         <f>VLOOKUP(A41,Sheet4!B:C,2,0)</f>
-        <v>4.1955400000000003</v>
+        <v>4.7314600000000002</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>66.389572268462302</v>
+        <v>113.46109467888594</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -8468,11 +8471,11 @@
       </c>
       <c r="M41" s="14">
         <f>C42*C59</f>
-        <v>3.8284116332251181</v>
+        <v>6.5212755936449218</v>
       </c>
       <c r="N41" s="14">
         <f>(1-I10)*C42/C26+C38</f>
-        <v>4.6671582271475955</v>
+        <v>7.3754804420290903</v>
       </c>
       <c r="O41" t="b">
         <f>M41=initial!M41</f>
@@ -8484,7 +8487,7 @@
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="1"/>
-        <v>0.83874659392247741</v>
+        <v>0.85420484838416844</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -8493,11 +8496,11 @@
       </c>
       <c r="B42">
         <f>VLOOKUP(A42,Sheet4!B:C,2,0)</f>
-        <v>1.3424499999999999</v>
+        <v>1.87507</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>3.828411633225095</v>
+        <v>6.5212755936449156</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -8512,11 +8515,11 @@
       </c>
       <c r="M42" s="14">
         <f>I20*C20</f>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="N42" s="14">
         <f>I23*C21</f>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="O42" t="b">
         <f>M42=initial!M42</f>
@@ -8537,11 +8540,11 @@
       </c>
       <c r="B43">
         <f>VLOOKUP(A43,Sheet4!B:C,2,0)</f>
-        <v>4.1955400000000003</v>
+        <v>4.7314600000000002</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>66.389572268462302</v>
+        <v>113.46109467888594</v>
       </c>
       <c r="H43" t="s">
         <v>110</v>
@@ -8555,11 +8558,11 @@
       </c>
       <c r="M43" s="4">
         <f>I20*C8</f>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="N43" s="4">
         <f>I22*C9</f>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="O43" t="b">
         <f>M43=initial!M43</f>
@@ -8580,11 +8583,11 @@
       </c>
       <c r="B44">
         <f>VLOOKUP(A44,Sheet4!B:C,2,0)</f>
-        <v>-1.1307899999999999E-2</v>
+        <v>-1.8943700000000001E-2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.98875579399337143</v>
+        <v>0.98123460419594666</v>
       </c>
       <c r="H44" t="s">
         <v>95</v>
@@ -8599,11 +8602,11 @@
       </c>
       <c r="M44" s="4">
         <f>I20*C6</f>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="N44" s="4">
         <f>I21*C7</f>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="O44" t="b">
         <f>M44=initial!M44</f>
@@ -8624,11 +8627,11 @@
       </c>
       <c r="B45">
         <f>VLOOKUP(A45,Sheet4!B:C,2,0)</f>
-        <v>-1.1307899999999999E-2</v>
+        <v>-1.8943700000000001E-2</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.98875579399337143</v>
+        <v>0.98123460419594666</v>
       </c>
       <c r="H45" t="s">
         <v>132</v>
@@ -8643,11 +8646,11 @@
       </c>
       <c r="M45" s="14">
         <f>C8+C6</f>
-        <v>23.506719753675128</v>
+        <v>42.128293012734268</v>
       </c>
       <c r="N45" s="14">
         <f>C20+C42</f>
-        <v>23.506583610967951</v>
+        <v>42.128195558368461</v>
       </c>
       <c r="O45" t="b">
         <f>M45=initial!M45</f>
@@ -8659,7 +8662,7 @@
       </c>
       <c r="Q45" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3614270717710042E-4</v>
+        <v>-9.7454365807436716E-5</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -8668,11 +8671,11 @@
       </c>
       <c r="B46">
         <f>VLOOKUP(A46,Sheet4!B:C,2,0)</f>
-        <v>-7.2653200000000001E-2</v>
+        <v>-7.3861200000000002E-2</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.9299232715017659</v>
+        <v>0.92880060241844065</v>
       </c>
       <c r="H46" t="s">
         <v>133</v>
@@ -8686,7 +8689,7 @@
       </c>
       <c r="M46" s="14">
         <f>-1+C57/(C57-1)-C57/(C57-1)*C69/C68-I33*(C68/C68-(C68/C68)^I27)*C68/C68+I9*(C50/C50)*I33*(C68/C68-(C68/C68)^I27)*((C68/C68)^2)*(C20/C20)</f>
-        <v>-3.4204723957810232</v>
+        <v>-2.8654527857017316</v>
       </c>
       <c r="N46" s="14">
         <v>0</v>
@@ -8701,7 +8704,7 @@
       </c>
       <c r="Q46" s="4">
         <f t="shared" si="1"/>
-        <v>3.4204723957810232</v>
+        <v>2.8654527857017316</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -8710,11 +8713,11 @@
       </c>
       <c r="B47">
         <f>VLOOKUP(A47,Sheet4!B:C,2,0)</f>
-        <v>-7.2653200000000001E-2</v>
+        <v>-7.3861200000000002E-2</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.9299232715017659</v>
+        <v>0.92880060241844065</v>
       </c>
       <c r="H47" t="s">
         <v>7</v>
@@ -8728,7 +8731,7 @@
       </c>
       <c r="M47" s="14">
         <f>1-C55/(C55-1)+C55/(C55-1)*C65/C66-I31*(C66/C66-(C66/C66)^I25)*C66/C66+I9*(C50/C50)*I31*(C66/C66-(C66/C66)^I25)*((C66/C66)^2)*(C6/C6)</f>
-        <v>2.6375156387333138</v>
+        <v>0.70177569615319335</v>
       </c>
       <c r="N47" s="14">
         <v>0</v>
@@ -8743,7 +8746,7 @@
       </c>
       <c r="Q47" s="4">
         <f t="shared" si="1"/>
-        <v>-2.6375156387333138</v>
+        <v>-0.70177569615319335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -8752,11 +8755,11 @@
       </c>
       <c r="B48">
         <f>VLOOKUP(A48,Sheet4!B:C,2,0)</f>
-        <v>-0.13846</v>
+        <v>-0.66757900000000003</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.87069807849570691</v>
+        <v>0.51294892508794088</v>
       </c>
       <c r="H48" t="s">
         <v>115</v>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="M48" s="14">
         <f>1-C56/(C56-1)+C56/(C56-1)*C65/C67-I32*(C67/C67-(C67/C67)^I25)*C67/C67+I9*(C50/C50)*I32*(C67/C67-(C67/C67)^I25)*((C67/C67)^2)*(C8/C8)</f>
-        <v>-0.27963418650427241</v>
+        <v>4.5138835404981901</v>
       </c>
       <c r="N48" s="14">
         <v>0</v>
@@ -8786,7 +8789,7 @@
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="1"/>
-        <v>0.27963418650427241</v>
+        <v>-4.5138835404981901</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -8795,11 +8798,11 @@
       </c>
       <c r="B49">
         <f>VLOOKUP(A49,Sheet4!B:C,2,0)</f>
-        <v>1.23969</v>
+        <v>1.0838000000000001</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>3.4545423906136699</v>
+        <v>2.9558906209016107</v>
       </c>
       <c r="H49" t="s">
         <v>116</v>
@@ -8814,11 +8817,11 @@
       </c>
       <c r="M49" s="14">
         <f>C38</f>
-        <v>0.4645728024829493</v>
+        <v>0.21684119795540463</v>
       </c>
       <c r="N49" s="14">
         <f>C67*C8+C66*C6-C68*C20-I33/2*((C68/C68-1)^2*C68*C20)-I31/2*((C66/C66-1)^2*C66*C6)-I32/2*((C67/C67-1)^2*C67*C8)-I35/2*((C42/C6-I65)^2*C42)</f>
-        <v>0.44121741094933487</v>
+        <v>0.18833043876547947</v>
       </c>
       <c r="O49" t="b">
         <f>M49=initial!M49</f>
@@ -8830,7 +8833,7 @@
       </c>
       <c r="Q49" s="4">
         <f t="shared" si="1"/>
-        <v>-2.3355391533614434E-2</v>
+        <v>-2.8510759189925156E-2</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -8839,11 +8842,11 @@
       </c>
       <c r="B50">
         <f>VLOOKUP(A50,Sheet4!B:C,2,0)</f>
-        <v>-1.4987200000000001</v>
+        <v>-1.5979000000000001</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.2234159496196616</v>
+        <v>0.20232094617605728</v>
       </c>
       <c r="H50" t="s">
         <v>134</v>
@@ -8860,11 +8863,11 @@
       </c>
       <c r="M50" s="14">
         <f>C40</f>
-        <v>1.4554963842462374</v>
+        <v>1.5902241799933958</v>
       </c>
       <c r="N50" s="14">
         <f>C79*(1-1/C78-I36/2*(C59-C59^I28*I47^(1-I28))^2)</f>
-        <v>1.455504748715766</v>
+        <v>1.5902205969030789</v>
       </c>
       <c r="O50" t="b">
         <f>M50=initial!M50</f>
@@ -8876,7 +8879,7 @@
       </c>
       <c r="Q50" s="4">
         <f t="shared" si="1"/>
-        <v>8.3644695285656212E-6</v>
+        <v>-3.5830903168942996E-6</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -8885,11 +8888,11 @@
       </c>
       <c r="B51">
         <f>VLOOKUP(A51,Sheet4!B:C,2,0)</f>
-        <v>307.25900000000001</v>
+        <v>362.24900000000002</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2.7598673908793713E+133</v>
+        <v>2.1025279362500285E+157</v>
       </c>
       <c r="H51" t="s">
         <v>117</v>
@@ -8905,7 +8908,7 @@
       </c>
       <c r="M51" s="4">
         <f>1-C28+C28/C78-I36*(C59-C59^I28*I47^(1-I28))*C59+I9*C50/C50*I36*(C59-C59^I28*I47^(1-I28))*C59*C79/C79</f>
-        <v>-2.7468029981378696E-6</v>
+        <v>-2.7468029975829758E-6</v>
       </c>
       <c r="N51" s="4">
         <v>0</v>
@@ -8920,7 +8923,7 @@
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="1"/>
-        <v>2.7468029981378696E-6</v>
+        <v>2.7468029975829758E-6</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8929,11 +8932,11 @@
       </c>
       <c r="B52">
         <f>VLOOKUP(A52,Sheet4!B:C,2,0)</f>
-        <v>64.6554</v>
+        <v>154.70599999999999</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>1.2008352978301751E+28</v>
+        <v>1.5415659792380473E+67</v>
       </c>
       <c r="H52" t="s">
         <v>136</v>
@@ -8950,11 +8953,11 @@
       </c>
       <c r="M52" s="4">
         <f>C14</f>
-        <v>5.9139265401175312</v>
+        <v>7.2305130866911149</v>
       </c>
       <c r="N52" s="4">
         <f>I23*C17+I22*C16+I21*C15</f>
-        <v>5.913933859616459</v>
+        <v>7.2304613161154432</v>
       </c>
       <c r="O52" t="b">
         <f>M52=initial!M52</f>
@@ -8966,7 +8969,7 @@
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="1"/>
-        <v>7.3194989278491107E-6</v>
+        <v>-5.1770575671739039E-5</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -8994,11 +8997,11 @@
       </c>
       <c r="M53" s="4">
         <f>C12</f>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="N53" s="4">
         <f>I20*C8</f>
-        <v>1.9089512357072858</v>
+        <v>4.6976388023456268</v>
       </c>
       <c r="O53" t="b">
         <f>M53=initial!M53</f>
@@ -9038,11 +9041,11 @@
       </c>
       <c r="M54" s="4">
         <f>C11</f>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="N54" s="4">
         <f>I20*C6</f>
-        <v>21.597768517967843</v>
+        <v>37.430654210388639</v>
       </c>
       <c r="O54" t="b">
         <f>M54=initial!M54</f>
@@ -9081,11 +9084,11 @@
       </c>
       <c r="M55" s="4">
         <f>C5</f>
-        <v>23.506571021488853</v>
+        <v>42.128311632334054</v>
       </c>
       <c r="N55" s="4">
         <f>C11+C12</f>
-        <v>23.506719753675128</v>
+        <v>42.128293012734268</v>
       </c>
       <c r="O55" t="b">
         <f>M55=initial!M55</f>
@@ -9097,7 +9100,7 @@
       </c>
       <c r="Q55" s="4">
         <f t="shared" si="1"/>
-        <v>1.4873218627542428E-4</v>
+        <v>-1.8619599785552055E-5</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -9124,11 +9127,11 @@
       </c>
       <c r="M56" s="4">
         <f>C19</f>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="N56" s="4">
         <f>I23*C21</f>
-        <v>19.678171977742856</v>
+        <v>35.606919964723545</v>
       </c>
       <c r="O56" t="b">
         <f>M56=initial!M56</f>
@@ -9167,11 +9170,11 @@
       </c>
       <c r="M57" s="4">
         <f>C79</f>
-        <v>8.733009139686656</v>
+        <v>9.5413024376085502</v>
       </c>
       <c r="N57" s="4">
         <f>I21*C80</f>
-        <v>8.733009139686656</v>
+        <v>9.5413024376085502</v>
       </c>
       <c r="O57" t="b">
         <f>M57=initial!M57</f>
@@ -9192,11 +9195,11 @@
       </c>
       <c r="B58">
         <f>VLOOKUP(A58,Sheet4!B:C,2,0)</f>
-        <v>221.56100000000001</v>
+        <v>254.86699999999999</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1.6700124351050359E+96</v>
+        <v>4.867788711623966E+110</v>
       </c>
       <c r="H58" t="s">
         <v>144</v>
@@ -9211,11 +9214,11 @@
       </c>
       <c r="M58" s="4">
         <f>C39</f>
-        <v>0.4645728024829493</v>
+        <v>0.21684119795540463</v>
       </c>
       <c r="N58" s="4">
         <f>I20*C38</f>
-        <v>0.4645728024829493</v>
+        <v>0.21684119795540463</v>
       </c>
       <c r="O58" t="b">
         <f>M58=initial!M58</f>
@@ -9236,11 +9239,11 @@
       </c>
       <c r="B59">
         <f>VLOOKUP(A59,Sheet4!B:C,2,0)</f>
-        <v>5.9447299999999999E-15</v>
+        <v>8.9462999999999991E-16</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="H59" t="s">
         <v>131</v>
@@ -9255,11 +9258,11 @@
       </c>
       <c r="M59" s="4">
         <f>I21*C47</f>
-        <v>0.9299232715017659</v>
+        <v>0.92880060241844065</v>
       </c>
       <c r="N59" s="4">
         <f>I23*C46</f>
-        <v>0.9299232715017659</v>
+        <v>0.92880060241844065</v>
       </c>
       <c r="O59" t="b">
         <f>M59=initial!M59</f>
@@ -9280,11 +9283,11 @@
       </c>
       <c r="B60">
         <f>VLOOKUP(A60,Sheet4!B:C,2,0)</f>
-        <v>5.9618099999999997E-15</v>
+        <v>9.0297500000000004E-16</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="H60" t="s">
         <v>138</v>
@@ -9299,11 +9302,11 @@
       </c>
       <c r="M60" s="4">
         <f>I21*C45</f>
-        <v>0.98875579399337143</v>
+        <v>0.98123460419594666</v>
       </c>
       <c r="N60" s="4">
         <f>I22*C44</f>
-        <v>0.98875579399337143</v>
+        <v>0.98123460419594666</v>
       </c>
       <c r="O60" t="b">
         <f>M60=initial!M60</f>
@@ -9324,11 +9327,11 @@
       </c>
       <c r="B61">
         <f>VLOOKUP(A61,Sheet4!B:C,2,0)</f>
-        <v>5.9727899999999998E-15</v>
+        <v>8.3273500000000001E-16</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="H61" t="s">
         <v>139</v>
@@ -9347,7 +9350,7 @@
       </c>
       <c r="N61" s="4">
         <f>I23*C30+I22*C29</f>
-        <v>1.0000000469515058</v>
+        <v>0.99999991199226324</v>
       </c>
       <c r="O61" t="b">
         <f>M61=initial!M61</f>
@@ -9359,7 +9362,7 @@
       </c>
       <c r="Q61" s="4">
         <f t="shared" si="1"/>
-        <v>4.6951505794368131E-8</v>
+        <v>-8.8007736764872391E-8</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -9368,11 +9371,11 @@
       </c>
       <c r="B62">
         <f>VLOOKUP(A62,Sheet4!B:C,2,0)</f>
-        <v>5.7971400000000002E-15</v>
+        <v>8.5134799999999998E-16</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>1.0000000000000058</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="H62" t="s">
         <v>142</v>
@@ -9387,11 +9390,11 @@
       </c>
       <c r="M62" s="4">
         <f>C41</f>
-        <v>66.389572268462302</v>
+        <v>113.46109467888594</v>
       </c>
       <c r="N62" s="4">
         <f>I21*C43</f>
-        <v>66.389572268462302</v>
+        <v>113.46109467888594</v>
       </c>
       <c r="O62" t="b">
         <f>M62=initial!M62</f>
@@ -9412,11 +9415,11 @@
       </c>
       <c r="B63">
         <f>VLOOKUP(A63,Sheet4!B:C,2,0)</f>
-        <v>5.4999799999999999</v>
+        <v>5.6124499999999999</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>244.68703847451314</v>
+        <v>273.81426183190518</v>
       </c>
       <c r="H63" t="s">
         <v>141</v>
@@ -9431,11 +9434,11 @@
       </c>
       <c r="M63" s="14">
         <f>C81</f>
-        <v>9.16699927599368</v>
+        <v>12.790081656854955</v>
       </c>
       <c r="N63" s="14">
         <f>C14+1*(C41-(1-I11)*C41)</f>
-        <v>9.1670155812721834</v>
+        <v>12.79010672595653</v>
       </c>
       <c r="O63" t="b">
         <f>M63=initial!M63</f>
@@ -9447,7 +9450,7 @@
       </c>
       <c r="Q63" s="4">
         <f t="shared" si="1"/>
-        <v>1.630527850338126E-5</v>
+        <v>2.5069101575070363E-5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -9456,11 +9459,11 @@
       </c>
       <c r="B64">
         <f>VLOOKUP(A64,Sheet4!B:C,2,0)</f>
-        <v>1.4082700000000001E-16</v>
+        <v>-3.0339099999999999E-17</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>140</v>
@@ -9474,19 +9477,19 @@
       </c>
       <c r="M64" s="4">
         <f>C62</f>
-        <v>1.0000000000000058</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="N64" s="4">
         <f>(C77+C76)/(C76+C77)*C59</f>
-        <v>1.000000000000006</v>
+        <v>1.0000000000000009</v>
       </c>
       <c r="O64" t="b">
         <f>M64=initial!M64</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="b">
         <f>N64=initial!N64</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="4">
         <f t="shared" si="1"/>
@@ -9518,11 +9521,11 @@
       </c>
       <c r="M65" s="4">
         <f>(1+C69)</f>
-        <v>1.007250607648801</v>
+        <v>1.0064395926111822</v>
       </c>
       <c r="N65" s="4">
         <f>(1+I50)^(1-I59)*(1+C69)^I59*((C59/I47)^I45*(C81/C81)^I46)^(1-I59)*(1+I66)</f>
-        <v>1.0092245662816137</v>
+        <v>1.0086146601102253</v>
       </c>
       <c r="O65" t="b">
         <f>M65=initial!M65</f>
@@ -9534,7 +9537,7 @@
       </c>
       <c r="Q65" s="4">
         <f t="shared" si="1"/>
-        <v>1.973958632812689E-3</v>
+        <v>2.1750674990430596E-3</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -9543,11 +9546,11 @@
       </c>
       <c r="B66">
         <f>VLOOKUP(A66,Sheet4!B:C,2,0)</f>
-        <v>-3.76579</v>
+        <v>-4.71577</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>2.3149317049189148E-2</v>
+        <v>8.952969625478072E-3</v>
       </c>
       <c r="H66" t="s">
         <v>89</v>
@@ -9563,11 +9566,11 @@
       </c>
       <c r="M66" s="4">
         <f>C25</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="N66" s="4">
         <f>1-I55*1+I55*C25+I67</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O66" t="b">
         <f>M66=initial!M66</f>
@@ -9588,11 +9591,11 @@
       </c>
       <c r="B67">
         <f>VLOOKUP(A67,Sheet4!B:C,2,0)</f>
-        <v>-3.9163600000000001</v>
+        <v>-5.4847200000000003</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C82" si="2">EXP(B67)</f>
-        <v>1.9913447932154011E-2</v>
+        <v>4.1496968317432017E-3</v>
       </c>
       <c r="H67" t="s">
         <v>92</v>
@@ -9606,7 +9609,7 @@
       </c>
       <c r="M67" s="4">
         <f>C23</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="N67" s="4">
         <f>1-I52*1+I52*C3+I68</f>
@@ -9653,7 +9656,7 @@
       </c>
       <c r="N68" s="4">
         <f>1-I53*1+I53*C23+I69</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="O68" t="b">
         <f>M68=initial!M68</f>
@@ -9674,11 +9677,11 @@
       </c>
       <c r="B69">
         <f>VLOOKUP(A69,Sheet4!B:C,2,0)</f>
-        <v>-4.9266699999999997</v>
+        <v>-5.0452899999999996</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>7.2506076488009687E-3</v>
+        <v>6.4395926111823114E-3</v>
       </c>
       <c r="H69" t="s">
         <v>82</v>
@@ -9717,11 +9720,11 @@
       </c>
       <c r="B70">
         <f>VLOOKUP(A70,Sheet4!B:C,2,0)</f>
-        <v>-2.6076700000000002</v>
+        <v>-2.6816200000000001</v>
       </c>
       <c r="C70">
         <f>EXP(B70)</f>
-        <v>7.3706079010984873E-2</v>
+        <v>6.8452171764555508E-2</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
@@ -9760,11 +9763,11 @@
       </c>
       <c r="B71">
         <f>VLOOKUP(A71,Sheet4!B:C,2,0)</f>
-        <v>2.11532E-3</v>
+        <v>8.3461200000000003E-3</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>1.0021175588677134</v>
+        <v>1.0083810459573204</v>
       </c>
       <c r="H71" t="s">
         <v>84</v>
@@ -9803,11 +9806,11 @@
       </c>
       <c r="B72">
         <f>VLOOKUP(A72,Sheet4!B:C,2,0)</f>
-        <v>-6.1814400000000003</v>
+        <v>-4.7948700000000004</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>2.0674485841191705E-3</v>
+        <v>8.2720741275114119E-3</v>
       </c>
       <c r="H72" t="s">
         <v>183</v>
@@ -9846,11 +9849,11 @@
       </c>
       <c r="B73">
         <f>VLOOKUP(A73,Sheet4!B:C,2,0)</f>
-        <v>-3.9677899999999999</v>
+        <v>-2.7857599999999998</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>1.8915189546219201E-2</v>
+        <v>6.1682192746140792E-2</v>
       </c>
       <c r="H73" t="s">
         <v>86</v>
@@ -9889,11 +9892,11 @@
       </c>
       <c r="B74">
         <f>VLOOKUP(A74,Sheet4!B:C,2,0)</f>
-        <v>-4.0275699999999999</v>
+        <v>-5.8647999999999998</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>1.7817574095800183E-2</v>
+        <v>2.8375905068388769E-3</v>
       </c>
       <c r="H74" t="s">
         <v>87</v>
@@ -9907,7 +9910,7 @@
       </c>
       <c r="M74" s="4">
         <f>C24</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N74" s="4">
         <f>1-I54*1+I54*C24+I75</f>
@@ -9932,11 +9935,11 @@
       </c>
       <c r="B75">
         <f>VLOOKUP(A75,Sheet4!B:C,2,0)</f>
-        <v>-0.20091800000000001</v>
+        <v>-0.57437000000000005</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>0.8179795031231436</v>
+        <v>0.56305948456653943</v>
       </c>
       <c r="H75" t="s">
         <v>90</v>
@@ -9975,11 +9978,11 @@
       </c>
       <c r="B76">
         <f>VLOOKUP(A76,Sheet4!B:C,2,0)</f>
-        <v>-1.105</v>
+        <v>-1.00884</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>0.33121088224198098</v>
+        <v>0.36464171872913459</v>
       </c>
       <c r="H76" t="s">
         <v>91</v>
@@ -10018,11 +10021,11 @@
       </c>
       <c r="B77">
         <f>VLOOKUP(A77,Sheet4!B:C,2,0)</f>
-        <v>1.15357</v>
+        <v>1.2433099999999999</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>3.1694878077744146</v>
+        <v>3.4670704962578007</v>
       </c>
       <c r="H77" t="s">
         <v>83</v>
@@ -10036,11 +10039,11 @@
       </c>
       <c r="M77" s="4">
         <f>C26</f>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="N77" s="4">
         <f>1-I56*1+I56*C26+I78</f>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="O77" t="b">
         <f>M77=initial!M77</f>
@@ -10081,11 +10084,11 @@
       </c>
       <c r="M78" s="4">
         <f>B71</f>
-        <v>2.11532E-3</v>
+        <v>8.3461200000000003E-3</v>
       </c>
       <c r="N78" s="4">
         <f>C48-I7*C48*(1+C66)/C59</f>
-        <v>2.1152877360114397E-3</v>
+        <v>8.3461173851083759E-3</v>
       </c>
       <c r="O78" t="b">
         <f>M78=initial!M78</f>
@@ -10097,7 +10100,7 @@
       </c>
       <c r="Q78" s="4">
         <f t="shared" si="3"/>
-        <v>-3.2263988560248674E-8</v>
+        <v>-2.6148916244111975E-9</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -10106,11 +10109,11 @@
       </c>
       <c r="B79">
         <f>VLOOKUP(A79,Sheet4!B:C,2,0)</f>
-        <v>2.1671100000000001</v>
+        <v>2.25563</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>8.733009139686656</v>
+        <v>9.5413024376085502</v>
       </c>
       <c r="H79" t="s">
         <v>283</v>
@@ -10124,11 +10127,11 @@
       </c>
       <c r="M79" s="4">
         <f>B4</f>
-        <v>0.16286600000000001</v>
+        <v>0.15479599999999999</v>
       </c>
       <c r="N79" s="4">
         <f>C42/C5</f>
-        <v>0.16286559318776442</v>
+        <v>0.15479556006321762</v>
       </c>
       <c r="O79" t="b">
         <f>M79=initial!M79</f>
@@ -10140,7 +10143,7 @@
       </c>
       <c r="Q79" s="4">
         <f t="shared" si="3"/>
-        <v>-4.0681223559269064E-7</v>
+        <v>-4.3993678236486922E-7</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -10149,11 +10152,11 @@
       </c>
       <c r="B80">
         <f>VLOOKUP(A80,Sheet4!B:C,2,0)</f>
-        <v>2.1671100000000001</v>
+        <v>2.25563</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>8.733009139686656</v>
+        <v>9.5413024376085502</v>
       </c>
       <c r="H80" t="s">
         <v>284</v>
@@ -10167,11 +10170,11 @@
       </c>
       <c r="M80" s="4">
         <f>C13</f>
-        <v>1.9172851211307834E-2</v>
+        <v>4.7036334239709725E-3</v>
       </c>
       <c r="N80" s="4">
         <f>C8/(C8+C6)*C67+C6/(C8+C6)*C66-C68</f>
-        <v>1.9172811684672806E-2</v>
+        <v>4.7036421218244352E-3</v>
       </c>
       <c r="O80" t="b">
         <f>M80=initial!M80</f>
@@ -10183,7 +10186,7 @@
       </c>
       <c r="Q80" s="4">
         <f t="shared" si="3"/>
-        <v>-3.95266350275425E-8</v>
+        <v>8.6978534626427906E-9</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -10192,11 +10195,11 @@
       </c>
       <c r="B81">
         <f>VLOOKUP(A81,Sheet4!B:C,2,0)</f>
-        <v>2.2156099999999999</v>
+        <v>2.54867</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>9.16699927599368</v>
+        <v>12.790081656854955</v>
       </c>
       <c r="H81" t="s">
         <v>285</v>
@@ -10210,11 +10213,11 @@
       </c>
       <c r="M81" s="4">
         <f>C74</f>
-        <v>1.7817574095800183E-2</v>
+        <v>2.8375905068388769E-3</v>
       </c>
       <c r="N81" s="4">
         <f>0.5*C67+0.5*C66-C68</f>
-        <v>1.7817657999636555E-2</v>
+        <v>2.8376087375756114E-3</v>
       </c>
       <c r="O81" t="b">
         <f>M81=initial!M81</f>
@@ -10226,7 +10229,7 @@
       </c>
       <c r="Q81" s="4">
         <f t="shared" si="3"/>
-        <v>8.3903836371745921E-8</v>
+        <v>1.8230736734473063E-8</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -10285,10 +10288,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BO103"/>
+  <dimension ref="B1:BT103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10297,7 +10300,7 @@
     <col min="8" max="8" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:72" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>265</v>
       </c>
@@ -10346,17 +10349,20 @@
       <c r="BM1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1.4987200000000001</v>
+        <v>1.5979000000000001</v>
       </c>
       <c r="D2" t="str">
         <f>B2&amp;"="&amp;C2&amp;";"</f>
-        <v>c_p=1.49872;</v>
+        <v>c_p=1.5979;</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -10454,17 +10460,23 @@
       <c r="BO2">
         <v>1.4987200000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT2">
+        <v>1.5979000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>-1.12703E-2</v>
+        <v>-2.4563100000000001E-2</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">B3&amp;"="&amp;C3&amp;";"</f>
-        <v>h_p=-0.0112703;</v>
+        <v>h_p=-0.0245631;</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -10562,17 +10574,23 @@
       <c r="BO3">
         <v>-1.12703E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BT3">
+        <v>-2.4563100000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>d_p=2.97951;</v>
+        <v>d_p=3.57254;</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -10670,17 +10688,23 @@
       <c r="BO4">
         <v>2.9795099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BT4">
+        <v>3.57254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>-7.2653200000000001E-2</v>
+        <v>-7.3861200000000002E-2</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>l_p=-0.0726532;</v>
+        <v>l_p=-0.0738612;</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -10778,17 +10802,23 @@
       <c r="BO5">
         <v>-7.2653200000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BT5">
+        <v>-7.3861200000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>-1.4987200000000001</v>
+        <v>-1.5979000000000001</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>lam_p=-1.49872;</v>
+        <v>lam_p=-1.5979;</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -10886,17 +10916,23 @@
       <c r="BO6">
         <v>-1.4987200000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BT6">
+        <v>-1.5979000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.37534699999999999</v>
+        <v>0.46387499999999998</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>J_R=0.375347;</v>
+        <v>J_R=0.463875;</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -10994,17 +11030,23 @@
       <c r="BO7">
         <v>0.37534699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT7">
+        <v>0.46387499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>-0.76663700000000001</v>
+        <v>-1.5285899999999999</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>j_B=-0.766637;</v>
+        <v>j_B=-1.52859;</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -11102,17 +11144,23 @@
       <c r="BO8">
         <v>-0.76663700000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR8" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT8">
+        <v>-1.5285899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>5.9727899999999998E-15</v>
+        <v>8.3273500000000001E-16</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>pie_wp=5.97279E-15;</v>
+        <v>pie_wp=8.32735E-16;</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -11211,17 +11259,23 @@
       <c r="BO9" s="2">
         <v>5.9727899999999998E-15</v>
       </c>
-    </row>
-    <row r="10" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>8.3273500000000001E-16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
-        <v>-1.23969</v>
+        <v>-1.0838000000000001</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>c_i=-1.23969;</v>
+        <v>c_i=-1.0838;</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -11319,17 +11373,23 @@
       <c r="BO10">
         <v>-1.23969</v>
       </c>
-    </row>
-    <row r="11" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT10">
+        <v>-1.0838000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>-4.4912099999999997</v>
+        <v>-3.7187700000000001</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>h_i=-4.49121;</v>
+        <v>h_i=-3.71877;</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -11427,17 +11487,23 @@
       <c r="BO11">
         <v>-4.4912099999999997</v>
       </c>
-    </row>
-    <row r="12" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT11">
+        <v>-3.7187700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>b_i=0.646554;</v>
+        <v>b_i=1.54706;</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -11535,17 +11601,23 @@
       <c r="BO12">
         <v>0.64655399999999996</v>
       </c>
-    </row>
-    <row r="13" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT12">
+        <v>1.5470600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>-1.1307899999999999E-2</v>
+        <v>-1.8943700000000001E-2</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>l_i=-0.0113079;</v>
+        <v>l_i=-0.0189437;</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -11643,17 +11715,23 @@
       <c r="BO13">
         <v>-1.1307899999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT13">
+        <v>-1.8943700000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
       <c r="C14">
-        <v>1.23969</v>
+        <v>1.0838000000000001</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>lam_i=1.23969;</v>
+        <v>lam_i=1.0838;</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -11751,17 +11829,23 @@
       <c r="BO14">
         <v>1.23969</v>
       </c>
-    </row>
-    <row r="15" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT14">
+        <v>1.0838000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>-3.9677899999999999</v>
+        <v>-2.7857599999999998</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>s_i=-3.96779;</v>
+        <v>s_i=-2.78576;</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -11859,17 +11943,23 @@
       <c r="BO15">
         <v>-3.9677899999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR15" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT15">
+        <v>-2.7857599999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>5.9618099999999997E-15</v>
+        <v>9.0297500000000004E-16</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>pie_wi=5.96181E-15;</v>
+        <v>pie_wi=9.02975E-16;</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -11968,17 +12058,23 @@
       <c r="BO16" s="2">
         <v>5.9618099999999997E-15</v>
       </c>
-    </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR16" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>9.0297500000000004E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17">
-        <v>1.1796</v>
+        <v>1.71553</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>I=1.1796;</v>
+        <v>I=1.71553;</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -12076,17 +12172,23 @@
       <c r="BO17">
         <v>1.1796</v>
       </c>
-    </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR17" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT17">
+        <v>1.71553</v>
+      </c>
+    </row>
+    <row r="18" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1.4082700000000001E-16</v>
+        <v>-3.0339099999999999E-17</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>q_k=1.40827E-16;</v>
+        <v>q_k=-3.03391E-17;</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -12184,17 +12286,23 @@
       <c r="BO18" s="2">
         <v>1.4082700000000001E-16</v>
       </c>
-    </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR18" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>-3.0339099999999999E-17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19">
-        <v>0.13846</v>
+        <v>0.66757900000000003</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>c_e=0.13846;</v>
+        <v>c_e=0.667579;</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -12292,17 +12400,23 @@
       <c r="BO19">
         <v>0.13846</v>
       </c>
-    </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR19" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT19">
+        <v>0.66757900000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20">
-        <v>4.1955400000000003</v>
+        <v>4.7314600000000002</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>k_e=4.19554;</v>
+        <v>k_e=4.73146;</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -12400,17 +12514,23 @@
       <c r="BO20">
         <v>4.1955400000000003</v>
       </c>
-    </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR20" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT20">
+        <v>4.7314600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21">
-        <v>-7.2653200000000001E-2</v>
+        <v>-7.3861200000000002E-2</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>l_pd=-0.0726532;</v>
+        <v>l_pd=-0.0738612;</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -12508,17 +12628,23 @@
       <c r="BO21">
         <v>-7.2653200000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BT21">
+        <v>-7.3861200000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22">
-        <v>-1.1307899999999999E-2</v>
+        <v>-1.8943700000000001E-2</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>l_id=-0.0113079;</v>
+        <v>l_id=-0.0189437;</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -12616,17 +12742,23 @@
       <c r="BO22">
         <v>-1.1307899999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR22" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT22">
+        <v>-1.8943700000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23">
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>b_ee=3.07259;</v>
+        <v>b_ee=3.62249;</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -12724,17 +12856,23 @@
       <c r="BO23">
         <v>3.0725899999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT23">
+        <v>3.62249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24">
-        <v>2.1671100000000001</v>
+        <v>2.25563</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>y_e=2.16711;</v>
+        <v>y_e=2.25563;</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -12832,17 +12970,23 @@
       <c r="BO24">
         <v>2.1671100000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR24" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT24">
+        <v>2.25563</v>
+      </c>
+    </row>
+    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25">
-        <v>-0.13846</v>
+        <v>-0.66757900000000003</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>lam_e=-0.13846;</v>
+        <v>lam_e=-0.667579;</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -12940,17 +13084,23 @@
       <c r="BO25">
         <v>-0.13846</v>
       </c>
-    </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR25" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT25">
+        <v>-0.66757900000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26">
-        <v>-6.1814400000000003</v>
+        <v>-4.7948700000000004</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>s_e=-6.18144;</v>
+        <v>s_e=-4.79487;</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -13048,17 +13198,23 @@
       <c r="BO26">
         <v>-6.1814400000000003</v>
       </c>
-    </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR26" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT26">
+        <v>-4.7948700000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27">
-        <v>-0.20091800000000001</v>
+        <v>-0.57437000000000005</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>u=-0.200918;</v>
+        <v>u=-0.57437;</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -13157,17 +13313,23 @@
       <c r="BO27">
         <v>-0.20091800000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR27" t="s">
+        <v>211</v>
+      </c>
+      <c r="BT27">
+        <v>-0.57437000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28">
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>d_b=2.97951;</v>
+        <v>d_b=3.57254;</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -13265,17 +13427,23 @@
       <c r="BO28">
         <v>2.9795099999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR28" t="s">
+        <v>212</v>
+      </c>
+      <c r="BT28">
+        <v>3.57254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29">
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>b_h=0.646554;</v>
+        <v>b_h=1.54706;</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
@@ -13373,17 +13541,23 @@
       <c r="BO29">
         <v>0.64655399999999996</v>
       </c>
-    </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BT29">
+        <v>1.5470600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30">
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>b_e=3.07259;</v>
+        <v>b_e=3.62249;</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -13481,8 +13655,14 @@
       <c r="BO30">
         <v>3.0725899999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR30" t="s">
+        <v>214</v>
+      </c>
+      <c r="BT30">
+        <v>3.62249</v>
+      </c>
+    </row>
+    <row r="31" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -13589,17 +13769,23 @@
       <c r="BO31">
         <v>-5.59572</v>
       </c>
-    </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR31" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT31">
+        <v>-5.59572</v>
+      </c>
+    </row>
+    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>46</v>
       </c>
       <c r="C32">
-        <v>-3.9163600000000001</v>
+        <v>-5.4847200000000003</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>r_bh=-3.91636;</v>
+        <v>r_bh=-5.48472;</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
@@ -13697,17 +13883,23 @@
       <c r="BO32">
         <v>-3.9163600000000001</v>
       </c>
-    </row>
-    <row r="33" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR32" t="s">
+        <v>216</v>
+      </c>
+      <c r="BT32">
+        <v>-5.4847200000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>47</v>
       </c>
       <c r="C33">
-        <v>-3.76579</v>
+        <v>-4.71577</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>r_be=-3.76579;</v>
+        <v>r_be=-4.71577;</v>
       </c>
       <c r="F33" t="s">
         <v>47</v>
@@ -13805,17 +13997,23 @@
       <c r="BO33">
         <v>-3.76579</v>
       </c>
-    </row>
-    <row r="34" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR33" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT33">
+        <v>-4.71577</v>
+      </c>
+    </row>
+    <row r="34" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-5.0795199999999996</v>
+        <v>-5.6441499999999998</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>R_b=-5.07952;</v>
+        <v>R_b=-5.64415;</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -13913,17 +14111,23 @@
       <c r="BO34">
         <v>-5.0795199999999996</v>
       </c>
-    </row>
-    <row r="35" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR34" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT34">
+        <v>-5.6441499999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>1.3424499999999999</v>
+        <v>1.87507</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>K_b=1.34245;</v>
+        <v>K_b=1.87507;</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -14021,17 +14225,23 @@
       <c r="BO35">
         <v>1.3424499999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR35" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT35">
+        <v>1.87507</v>
+      </c>
+    </row>
+    <row r="36" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="2">
-        <v>5.9447299999999999E-15</v>
+        <v>8.9462999999999991E-16</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>pie=5.94473E-15;</v>
+        <v>pie=8.9463E-16;</v>
       </c>
       <c r="F36" t="s">
         <v>48</v>
@@ -14130,8 +14340,14 @@
       <c r="BO36" s="2">
         <v>5.9447299999999999E-15</v>
       </c>
-    </row>
-    <row r="37" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR36" t="s">
+        <v>220</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>8.9462999999999991E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>49</v>
       </c>
@@ -14238,17 +14454,23 @@
       <c r="BO37">
         <v>0.18232200000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR37" t="s">
+        <v>221</v>
+      </c>
+      <c r="BT37">
+        <v>0.18232200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>50</v>
       </c>
       <c r="C38">
-        <v>1.7773099999999999</v>
+        <v>1.97831</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>C=1.77731;</v>
+        <v>C=1.97831;</v>
       </c>
       <c r="F38" t="s">
         <v>50</v>
@@ -14346,17 +14568,23 @@
       <c r="BO38">
         <v>1.7773099999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR38" t="s">
+        <v>222</v>
+      </c>
+      <c r="BT38">
+        <v>1.97831</v>
+      </c>
+    </row>
+    <row r="39" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>51</v>
       </c>
       <c r="C39">
-        <v>2.1671100000000001</v>
+        <v>2.25563</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>Y=2.16711;</v>
+        <v>Y=2.25563;</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
@@ -14454,17 +14682,23 @@
       <c r="BO39">
         <v>2.1671100000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR39" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT39">
+        <v>2.25563</v>
+      </c>
+    </row>
+    <row r="40" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>52</v>
       </c>
       <c r="C40">
-        <v>2.9795099999999999</v>
+        <v>3.57254</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>D=2.97951;</v>
+        <v>D=3.57254;</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -14562,17 +14796,23 @@
       <c r="BO40">
         <v>2.9795099999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR40" t="s">
+        <v>224</v>
+      </c>
+      <c r="BT40">
+        <v>3.57254</v>
+      </c>
+    </row>
+    <row r="41" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>53</v>
       </c>
       <c r="C41">
-        <v>3.0725899999999999</v>
+        <v>3.62249</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>BE=3.07259;</v>
+        <v>BE=3.62249;</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -14670,17 +14910,23 @@
       <c r="BO41">
         <v>3.0725899999999999</v>
       </c>
-    </row>
-    <row r="42" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR41" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT41">
+        <v>3.62249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>54</v>
       </c>
       <c r="C42">
-        <v>0.64655399999999996</v>
+        <v>1.5470600000000001</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>BH=0.646554;</v>
+        <v>BH=1.54706;</v>
       </c>
       <c r="F42" t="s">
         <v>54</v>
@@ -14778,17 +15024,23 @@
       <c r="BO42">
         <v>0.64655399999999996</v>
       </c>
-    </row>
-    <row r="43" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR42" t="s">
+        <v>226</v>
+      </c>
+      <c r="BT42">
+        <v>1.5470600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>3.1572800000000001</v>
+        <v>3.74072</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>B=3.15728;</v>
+        <v>B=3.74072;</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -14886,17 +15138,23 @@
       <c r="BO43">
         <v>3.1572800000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR43" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT43">
+        <v>3.74072</v>
+      </c>
+    </row>
+    <row r="44" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>55</v>
       </c>
       <c r="C44">
-        <v>1.15357</v>
+        <v>1.2433099999999999</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>w_p=1.15357;</v>
+        <v>w_p=1.24331;</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
@@ -14994,17 +15252,23 @@
       <c r="BO44">
         <v>1.15357</v>
       </c>
-    </row>
-    <row r="45" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR44" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT44">
+        <v>1.2433099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>56</v>
       </c>
       <c r="C45">
-        <v>-1.105</v>
+        <v>-1.00884</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>w_i=-1.105;</v>
+        <v>w_i=-1.00884;</v>
       </c>
       <c r="F45" t="s">
         <v>56</v>
@@ -15102,17 +15366,23 @@
       <c r="BO45">
         <v>-1.105</v>
       </c>
-    </row>
-    <row r="46" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR45" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT45">
+        <v>-1.00884</v>
+      </c>
+    </row>
+    <row r="46" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
       <c r="C46">
-        <v>-0.76663700000000001</v>
+        <v>-1.5285899999999999</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>J_B=-0.766637;</v>
+        <v>J_B=-1.52859;</v>
       </c>
       <c r="F46" t="s">
         <v>57</v>
@@ -15210,17 +15480,23 @@
       <c r="BO46">
         <v>-0.76663700000000001</v>
       </c>
-    </row>
-    <row r="47" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR46" t="s">
+        <v>230</v>
+      </c>
+      <c r="BT46">
+        <v>-1.5285899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
       <c r="C47">
-        <v>5.4999799999999999</v>
+        <v>5.6124499999999999</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>q_h=5.49998;</v>
+        <v>q_h=5.61245;</v>
       </c>
       <c r="F47" t="s">
         <v>58</v>
@@ -15318,17 +15594,23 @@
       <c r="BO47">
         <v>5.4999799999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR47" t="s">
+        <v>231</v>
+      </c>
+      <c r="BT47">
+        <v>5.6124499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48">
-        <v>4.1955400000000003</v>
+        <v>4.7314600000000002</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>K=4.19554;</v>
+        <v>K=4.73146;</v>
       </c>
       <c r="F48" t="s">
         <v>59</v>
@@ -15426,17 +15708,23 @@
       <c r="BO48">
         <v>4.1955400000000003</v>
       </c>
-    </row>
-    <row r="49" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR48" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT48">
+        <v>4.7314600000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="2">
-        <v>5.7971400000000002E-15</v>
+        <v>8.5134799999999998E-16</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>PIW=5.79714E-15;</v>
+        <v>PIW=8.51348E-16;</v>
       </c>
       <c r="F49" t="s">
         <v>60</v>
@@ -15535,17 +15823,23 @@
       <c r="BO49" s="2">
         <v>5.7971400000000002E-15</v>
       </c>
-    </row>
-    <row r="50" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR49" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT49" s="2">
+        <v>8.5134799999999998E-16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>-4.9266699999999997</v>
+        <v>-5.0452899999999996</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>r_ib=-4.92667;</v>
+        <v>r_ib=-5.04529;</v>
       </c>
       <c r="F50" t="s">
         <v>5</v>
@@ -15643,17 +15937,23 @@
       <c r="BO50">
         <v>-4.9266699999999997</v>
       </c>
-    </row>
-    <row r="51" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR50" t="s">
+        <v>234</v>
+      </c>
+      <c r="BT50">
+        <v>-5.0452899999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>163</v>
       </c>
       <c r="C51">
-        <v>-2.6076700000000002</v>
+        <v>-2.6816200000000001</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>r_k=-2.60767;</v>
+        <v>r_k=-2.68162;</v>
       </c>
       <c r="F51" t="s">
         <v>163</v>
@@ -15751,17 +16051,23 @@
       <c r="BO51">
         <v>-2.6076700000000002</v>
       </c>
-    </row>
-    <row r="52" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR51" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT51">
+        <v>-2.6816200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="2">
-        <v>1.27738E-16</v>
+        <v>-4.5728399999999998E-16</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>ee_z=1.27738E-16;</v>
+        <v>ee_z=-4.57284E-16;</v>
       </c>
       <c r="F52" t="s">
         <v>61</v>
@@ -15859,17 +16165,23 @@
       <c r="BO52" s="2">
         <v>1.27738E-16</v>
       </c>
-    </row>
-    <row r="53" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR52" t="s">
+        <v>236</v>
+      </c>
+      <c r="BT52" s="2">
+        <v>-4.5728399999999998E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="2">
-        <v>1.26752E-17</v>
+        <v>-1.35501E-17</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>A_e=1.26752E-17;</v>
+        <v>A_e=-1.35501E-17;</v>
       </c>
       <c r="F53" t="s">
         <v>62</v>
@@ -15967,17 +16279,23 @@
       <c r="BO53" s="2">
         <v>1.26752E-17</v>
       </c>
-    </row>
-    <row r="54" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR53" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>-1.35501E-17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>63</v>
       </c>
       <c r="C54" s="2">
-        <v>-2.7512200000000001E-16</v>
+        <v>4.2110200000000001E-16</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>ee_j=-2.75122E-16;</v>
+        <v>ee_j=4.21102E-16;</v>
       </c>
       <c r="F54" t="s">
         <v>63</v>
@@ -16075,17 +16393,23 @@
       <c r="BO54" s="2">
         <v>-2.7512200000000001E-16</v>
       </c>
-    </row>
-    <row r="55" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR54" t="s">
+        <v>238</v>
+      </c>
+      <c r="BT54" s="2">
+        <v>4.2110200000000001E-16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>64</v>
       </c>
       <c r="C55">
-        <v>-0.66905000000000003</v>
+        <v>-0.55042999999999997</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>mk_d=-0.66905;</v>
+        <v>mk_d=-0.55043;</v>
       </c>
       <c r="F55" t="s">
         <v>64</v>
@@ -16183,17 +16507,23 @@
       <c r="BO55">
         <v>-0.66905000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR55" t="s">
+        <v>239</v>
+      </c>
+      <c r="BT55">
+        <v>-0.55042999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>65</v>
       </c>
       <c r="C56">
-        <v>1.31372</v>
+        <v>0.92837899999999995</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>mk_be=1.31372;</v>
+        <v>mk_be=0.928379;</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
@@ -16291,17 +16621,23 @@
       <c r="BO56">
         <v>1.31372</v>
       </c>
-    </row>
-    <row r="57" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR56" t="s">
+        <v>240</v>
+      </c>
+      <c r="BT56">
+        <v>0.92837899999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
       <c r="C57">
-        <v>1.1631499999999999</v>
+        <v>0.15942700000000001</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>mk_bh=1.16315;</v>
+        <v>mk_bh=0.159427;</v>
       </c>
       <c r="F57" t="s">
         <v>66</v>
@@ -16399,17 +16735,23 @@
       <c r="BO57">
         <v>1.1631499999999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR57" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT57">
+        <v>0.15942700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="2">
-        <v>-1.8820600000000001E-16</v>
+        <v>-6.16294E-17</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>ee_qk=-1.88206E-16;</v>
+        <v>ee_qk=-6.16294E-17;</v>
       </c>
       <c r="F58" t="s">
         <v>67</v>
@@ -16507,8 +16849,14 @@
       <c r="BO58" s="2">
         <v>-1.8820600000000001E-16</v>
       </c>
-    </row>
-    <row r="59" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR58" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT58" s="2">
+        <v>-6.16294E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>68</v>
       </c>
@@ -16615,8 +16963,14 @@
       <c r="BO59">
         <v>-0.34249000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR59" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT59">
+        <v>-0.34249000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>69</v>
       </c>
@@ -16723,8 +17077,14 @@
       <c r="BO60">
         <v>-1.04982</v>
       </c>
-    </row>
-    <row r="61" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR60" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT60">
+        <v>-1.04982</v>
+      </c>
+    </row>
+    <row r="61" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>70</v>
       </c>
@@ -16831,8 +17191,14 @@
       <c r="BO61">
         <v>1.79176</v>
       </c>
-    </row>
-    <row r="62" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR61" t="s">
+        <v>245</v>
+      </c>
+      <c r="BT61">
+        <v>1.79176</v>
+      </c>
+    </row>
+    <row r="62" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>71</v>
       </c>
@@ -16939,17 +17305,23 @@
       <c r="BO62">
         <v>1.60944</v>
       </c>
-    </row>
-    <row r="63" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR62" t="s">
+        <v>246</v>
+      </c>
+      <c r="BT62">
+        <v>1.60944</v>
+      </c>
+    </row>
+    <row r="63" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="2">
-        <v>-5.20552E-18</v>
+        <v>3.75294E-16</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>eps_K_b=-5.20552E-18;</v>
+        <v>eps_K_b=3.75294E-16;</v>
       </c>
       <c r="F63" t="s">
         <v>72</v>
@@ -17047,17 +17419,23 @@
       <c r="BO63" s="2">
         <v>-5.20552E-18</v>
       </c>
-    </row>
-    <row r="64" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR63" t="s">
+        <v>247</v>
+      </c>
+      <c r="BT63" s="2">
+        <v>3.75294E-16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64">
-        <v>2.2156099999999999</v>
+        <v>2.54867</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>Y1=2.21561;</v>
+        <v>Y1=2.54867;</v>
       </c>
       <c r="F64" t="s">
         <v>73</v>
@@ -17155,17 +17533,23 @@
       <c r="BO64">
         <v>2.2156099999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR64" t="s">
+        <v>248</v>
+      </c>
+      <c r="BT64">
+        <v>2.54867</v>
+      </c>
+    </row>
+    <row r="65" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>74</v>
       </c>
       <c r="C65">
-        <v>2.11532E-3</v>
+        <v>8.3461200000000003E-3</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>rr_e=0.00211532;</v>
+        <v>rr_e=0.00834612;</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -17263,17 +17647,23 @@
       <c r="BO65">
         <v>2.11532E-3</v>
       </c>
-    </row>
-    <row r="66" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR65" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT65">
+        <v>8.3461200000000003E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.16286600000000001</v>
+        <v>0.15479599999999999</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v>aux1=0.162866;</v>
+        <v>aux1=0.154796;</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -17371,17 +17761,23 @@
       <c r="BO66">
         <v>0.16286600000000001</v>
       </c>
-    </row>
-    <row r="67" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR66" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT66">
+        <v>0.15479599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>76</v>
       </c>
       <c r="C67">
-        <v>-3.9542600000000001</v>
+        <v>-5.3594200000000001</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67" si="1">B67&amp;"="&amp;C67&amp;";"</f>
-        <v>bm=-3.95426;</v>
+        <v>bm=-5.35942;</v>
       </c>
       <c r="F67" t="s">
         <v>76</v>
@@ -17479,17 +17875,23 @@
       <c r="BO67">
         <v>-3.9542600000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR67" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT67">
+        <v>-5.3594200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>77</v>
       </c>
       <c r="C68">
-        <v>-4.0275699999999999</v>
+        <v>-5.8647999999999998</v>
       </c>
       <c r="D68" t="str">
         <f>B68&amp;"="&amp;C68&amp;";"</f>
-        <v>spr_b=-4.02757;</v>
+        <v>spr_b=-5.8648;</v>
       </c>
       <c r="F68" t="s">
         <v>77</v>
@@ -17587,17 +17989,23 @@
       <c r="BO68">
         <v>-4.0275699999999999</v>
       </c>
-    </row>
-    <row r="69" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR68" t="s">
+        <v>252</v>
+      </c>
+      <c r="BT68">
+        <v>-5.8647999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69">
-        <v>-1.8427500000000001</v>
+        <v>-1.9605300000000001</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ref="D69:D81" si="2">B69&amp;"="&amp;C69&amp;";"</f>
-        <v>vi=-1.84275;</v>
+        <v>vi=-1.96053;</v>
       </c>
       <c r="F69" t="s">
         <v>151</v>
@@ -17695,17 +18103,23 @@
       <c r="BO69">
         <v>-1.8427500000000001</v>
       </c>
-    </row>
-    <row r="70" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR69" t="s">
+        <v>286</v>
+      </c>
+      <c r="BT69">
+        <v>-1.9605300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>151</v>
       </c>
       <c r="C70">
-        <v>2.9002500000000002</v>
+        <v>2.57585</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
-        <v>interestPol=2.90025;</v>
+        <v>interestPol=2.57585;</v>
       </c>
       <c r="F70" t="s">
         <v>152</v>
@@ -17803,17 +18217,23 @@
       <c r="BO70">
         <v>2.9002500000000002</v>
       </c>
-    </row>
-    <row r="71" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR70" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT70">
+        <v>2.57585</v>
+      </c>
+    </row>
+    <row r="71" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>152</v>
       </c>
       <c r="C71">
-        <v>7.9653400000000003</v>
+        <v>1.65988</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
-        <v>interestH=7.96534;</v>
+        <v>interestH=1.65988;</v>
       </c>
       <c r="F71" t="s">
         <v>153</v>
@@ -17911,17 +18331,23 @@
       <c r="BO71">
         <v>7.9653400000000003</v>
       </c>
-    </row>
-    <row r="72" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR71" t="s">
+        <v>254</v>
+      </c>
+      <c r="BT71">
+        <v>1.65988</v>
+      </c>
+    </row>
+    <row r="72" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>153</v>
       </c>
       <c r="C72">
-        <v>9.2597100000000001</v>
+        <v>3.5811899999999999</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
-        <v>interestF=9.25971;</v>
+        <v>interestF=3.58119;</v>
       </c>
       <c r="F72" t="s">
         <v>154</v>
@@ -18020,17 +18446,23 @@
       <c r="BO72">
         <v>9.2597100000000001</v>
       </c>
-    </row>
-    <row r="73" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR72" t="s">
+        <v>255</v>
+      </c>
+      <c r="BT72">
+        <v>3.5811899999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>154</v>
       </c>
       <c r="C73" s="2">
-        <v>5.9447300000000001E-13</v>
+        <v>8.9462999999999995E-14</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
-        <v>inflation=0.000000000000594473;</v>
+        <v>inflation=0.000000000000089463;</v>
       </c>
       <c r="F73" t="s">
         <v>155</v>
@@ -18128,17 +18560,23 @@
       <c r="BO73" s="2">
         <v>5.9447300000000001E-13</v>
       </c>
-    </row>
-    <row r="74" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR73" t="s">
+        <v>256</v>
+      </c>
+      <c r="BT73" s="2">
+        <v>8.9462999999999995E-14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>155</v>
       </c>
       <c r="C74">
-        <v>64.6554</v>
+        <v>154.70599999999999</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
-        <v>loansH=64.6554;</v>
+        <v>loansH=154.706;</v>
       </c>
       <c r="F74" t="s">
         <v>156</v>
@@ -18236,17 +18674,23 @@
       <c r="BO74">
         <v>64.6554</v>
       </c>
-    </row>
-    <row r="75" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR74" t="s">
+        <v>257</v>
+      </c>
+      <c r="BT74">
+        <v>154.70599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>156</v>
       </c>
       <c r="C75">
-        <v>307.25900000000001</v>
+        <v>362.24900000000002</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
-        <v>loansF=307.259;</v>
+        <v>loansF=362.249;</v>
       </c>
       <c r="F75" t="s">
         <v>157</v>
@@ -18344,17 +18788,23 @@
       <c r="BO75">
         <v>307.25900000000001</v>
       </c>
-    </row>
-    <row r="76" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR75" t="s">
+        <v>258</v>
+      </c>
+      <c r="BT75">
+        <v>362.24900000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>157</v>
       </c>
       <c r="C76">
-        <v>221.56100000000001</v>
+        <v>254.86699999999999</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
-        <v>output=221.561;</v>
+        <v>output=254.867;</v>
       </c>
       <c r="F76" t="s">
         <v>158</v>
@@ -18452,17 +18902,23 @@
       <c r="BO76">
         <v>221.56100000000001</v>
       </c>
-    </row>
-    <row r="77" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR76" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT76">
+        <v>254.86699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>158</v>
       </c>
       <c r="C77">
-        <v>177.73099999999999</v>
+        <v>197.83099999999999</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
-        <v>consumption=177.731;</v>
+        <v>consumption=197.831;</v>
       </c>
       <c r="F77" t="s">
         <v>159</v>
@@ -18560,17 +19016,23 @@
       <c r="BO77">
         <v>177.73099999999999</v>
       </c>
-    </row>
-    <row r="78" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR77" t="s">
+        <v>260</v>
+      </c>
+      <c r="BT77">
+        <v>197.83099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>159</v>
       </c>
       <c r="C78">
-        <v>117.96</v>
+        <v>171.553</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
-        <v>investment=117.96;</v>
+        <v>investment=171.553;</v>
       </c>
       <c r="F78" t="s">
         <v>160</v>
@@ -18668,17 +19130,23 @@
       <c r="BO78">
         <v>117.96</v>
       </c>
-    </row>
-    <row r="79" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR78" t="s">
+        <v>261</v>
+      </c>
+      <c r="BT78">
+        <v>171.553</v>
+      </c>
+    </row>
+    <row r="79" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>160</v>
       </c>
       <c r="C79">
-        <v>297.95100000000002</v>
+        <v>357.25400000000002</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
-        <v>deposits=297.951;</v>
+        <v>deposits=357.254;</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -18776,8 +19244,14 @@
       <c r="BO79">
         <v>297.95100000000002</v>
       </c>
-    </row>
-    <row r="80" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR79" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT79">
+        <v>357.25400000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -18878,17 +19352,23 @@
       <c r="BO80">
         <v>1.4855</v>
       </c>
-    </row>
-    <row r="81" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR80" t="s">
+        <v>263</v>
+      </c>
+      <c r="BT80">
+        <v>1.4855</v>
+      </c>
+    </row>
+    <row r="81" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>162</v>
       </c>
       <c r="C81">
-        <v>134.245</v>
+        <v>187.50700000000001</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
-        <v>bankcapital=134.245;</v>
+        <v>bankcapital=187.507;</v>
       </c>
       <c r="BA81" t="s">
         <v>264</v>
@@ -18914,14 +19394,20 @@
       <c r="BO81">
         <v>134.245</v>
       </c>
-    </row>
-    <row r="93" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="BR81" t="s">
+        <v>264</v>
+      </c>
+      <c r="BT81">
+        <v>187.50700000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:72" x14ac:dyDescent="0.25">
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:72" x14ac:dyDescent="0.25">
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:72" x14ac:dyDescent="0.25">
       <c r="G95" s="15"/>
     </row>
     <row r="103" spans="47:47" x14ac:dyDescent="0.25">
